--- a/tamu/Spring 2023/ENGR 216/Homework/Homework 3/problem 3.xlsx
+++ b/tamu/Spring 2023/ENGR 216/Homework/Homework 3/problem 3.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\second brain\tamu\Spring 2023\ENGR 216\Homework\Homework 3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\second-brain\tamu\Spring 2023\ENGR 216\Homework\Homework 3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BCD553E6-A8F8-461C-A6E4-BEF741473636}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA5A5723-1482-4B98-BB7E-921B32E54F9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{714DE6C1-DA06-4836-9228-604974E727E3}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{714DE6C1-DA06-4836-9228-604974E727E3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -49,9 +49,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
-    <numFmt numFmtId="165" formatCode="0.000"/>
-    <numFmt numFmtId="166" formatCode="0.0000"/>
-    <numFmt numFmtId="167" formatCode="0.00000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="0.0000"/>
+    <numFmt numFmtId="166" formatCode="0.00000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -92,9 +92,9 @@
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -412,13 +412,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A8D7FA8-E93D-41E8-8600-E5F32C9F06AE}">
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="154" zoomScaleNormal="154" workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -441,7 +441,7 @@
         <v>2.4E-2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>

--- a/tamu/Spring 2023/ENGR 216/Homework/Homework 3/problem 3.xlsx
+++ b/tamu/Spring 2023/ENGR 216/Homework/Homework 3/problem 3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\second-brain\tamu\Spring 2023\ENGR 216\Homework\Homework 3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA5A5723-1482-4B98-BB7E-921B32E54F9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{280F454B-A141-4045-A2D7-26D7AA56DDEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{714DE6C1-DA06-4836-9228-604974E727E3}"/>
   </bookViews>
@@ -36,12 +36,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>y (m)</t>
   </si>
   <si>
     <t>u (m/s)</t>
+  </si>
+  <si>
+    <t>τ (N/m^2)</t>
   </si>
 </sst>
 </file>
@@ -53,7 +56,7 @@
     <numFmt numFmtId="165" formatCode="0.0000"/>
     <numFmt numFmtId="166" formatCode="0.00000"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -69,13 +72,26 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -90,12 +106,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -111,6 +129,967 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>u (m/s) vs</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> y (m)</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>u (m/s)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$1:$G$1</c:f>
+              <c:numCache>
+                <c:formatCode>0.00000</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0" formatCode="0.000">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="0.0000">
+                  <c:v>1.2E-2</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="0.0000">
+                  <c:v>1.7999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="0.0000">
+                  <c:v>2.4E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$2:$G$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0" formatCode="0.000">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.7000000000000004E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.57199999999999995</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.2909999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.0469999999999997</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9.0410000000000004</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-003E-4383-9A65-875207DFF2BF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="605135023"/>
+        <c:axId val="605138767"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="605135023"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="605138767"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="605138767"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="605135023"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>543667</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>153018</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>217095</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>20163</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5C97990F-8A51-B71D-B339-9AE71E951550}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -410,13 +1389,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A8D7FA8-E93D-41E8-8600-E5F32C9F06AE}">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="154" zoomScaleNormal="154" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
@@ -464,8 +1446,29 @@
         <v>9.0410000000000004</v>
       </c>
     </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3">
+        <f>(E2-C2)/(E1-C1) * 1.8 * 10^-5</f>
+        <v>4.0032000000000002E-3</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ref="E3:F3" si="0">(F2-D2)/(F1-D1) * 1.8 * 10^-5</f>
+        <v>6.7125000000000006E-3</v>
+      </c>
+      <c r="F3">
+        <f t="shared" si="0"/>
+        <v>1.0125E-2</v>
+      </c>
+      <c r="G3" s="5"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>